--- a/pub/chart.xlsx
+++ b/pub/chart.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
   <si>
     <t>C</t>
   </si>
@@ -49,16 +49,16 @@
     <t>Ruby</t>
   </si>
   <si>
-    <t>Compile</t>
-  </si>
-  <si>
-    <t>Run</t>
-  </si>
-  <si>
     <t>Overall</t>
   </si>
   <si>
-    <t>Output</t>
+    <t>Successful compile</t>
+  </si>
+  <si>
+    <t>Successful run</t>
+  </si>
+  <si>
+    <t>Wrong output</t>
   </si>
 </sst>
 </file>
@@ -120,20 +120,20 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>Sheet1!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Output</c:v>
+                  <c:v>Wrong output</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$12</c:f>
+              <c:f>Sheet1!$A$2:$A$26</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>C</c:v>
                 </c:pt>
@@ -165,6 +165,39 @@
                   <c:v>Ruby</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>Overall</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>C++</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>C#</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Haskell</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Java</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Javascript</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>PHP</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Perl</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Python</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Ruby</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>Overall</c:v>
                 </c:pt>
               </c:strCache>
@@ -172,42 +205,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$12</c:f>
+              <c:f>Sheet1!$D$2:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>9.6</c:v>
+                  <c:v>9.1999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.5</c:v>
+                  <c:v>8.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.8</c:v>
+                  <c:v>8.1999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1</c:v>
+                  <c:v>14.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>9.1999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.2</c:v>
+                  <c:v>18.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>36.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.6999999999999993</c:v>
+                  <c:v>22.1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.5</c:v>
+                  <c:v>14.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15.4</c:v>
+                  <c:v>14.3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.1</c:v>
+                  <c:v>15.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -222,16 +255,16 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Run</c:v>
+                  <c:v>Successful run</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$12</c:f>
+              <c:f>Sheet1!$A$2:$A$26</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>C</c:v>
                 </c:pt>
@@ -263,6 +296,39 @@
                   <c:v>Ruby</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>Overall</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>C++</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>C#</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Haskell</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Java</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Javascript</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>PHP</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Perl</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Python</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Ruby</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>Overall</c:v>
                 </c:pt>
               </c:strCache>
@@ -316,20 +382,20 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>Sheet1!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Compile</c:v>
+                  <c:v>Successful compile</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$12</c:f>
+              <c:f>Sheet1!$A$2:$A$26</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>C</c:v>
                 </c:pt>
@@ -361,6 +427,39 @@
                   <c:v>Ruby</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>Overall</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>C++</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>C#</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Haskell</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Java</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Javascript</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>PHP</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Perl</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Python</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Ruby</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>Overall</c:v>
                 </c:pt>
               </c:strCache>
@@ -368,7 +467,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$12</c:f>
+              <c:f>Sheet1!$B$2:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -411,11 +510,11 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="89332736"/>
-        <c:axId val="89380352"/>
+        <c:axId val="121601024"/>
+        <c:axId val="121606912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="89332736"/>
+        <c:axId val="121601024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -432,14 +531,14 @@
             <a:endParaRPr lang="el-GR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89380352"/>
+        <c:crossAx val="121606912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89380352"/>
+        <c:axId val="121606912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60"/>
@@ -457,7 +556,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1600" baseline="0"/>
-                  <a:t>Success rate (%)</a:t>
+                  <a:t>Rate (%)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -477,7 +576,7 @@
             <a:endParaRPr lang="el-GR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89332736"/>
+        <c:crossAx val="121601024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -494,13 +593,18 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.83951569556697869"/>
-          <c:y val="0.56898484289723117"/>
-          <c:w val="0.12906488116283496"/>
-          <c:h val="0.26911209937835662"/>
+          <c:x val="0.7505665839496577"/>
+          <c:y val="0.58850868005913326"/>
+          <c:w val="0.21183702771295415"/>
+          <c:h val="0.26911209937835667"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </c:spPr>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -846,23 +950,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection sqref="A1:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
         <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -870,13 +979,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9.6</v>
+        <v>29.3</v>
       </c>
       <c r="C2">
         <v>18.8</v>
       </c>
       <c r="D2">
-        <v>29.3</v>
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -884,13 +993,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.5</v>
+        <v>19.8</v>
       </c>
       <c r="C3">
         <v>11.8</v>
       </c>
       <c r="D3">
-        <v>19.8</v>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -898,13 +1007,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.8</v>
+        <v>14.8</v>
       </c>
       <c r="C4">
         <v>14</v>
       </c>
       <c r="D4">
-        <v>14.8</v>
+        <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -912,13 +1021,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.1</v>
+        <v>19.8</v>
       </c>
       <c r="C5">
         <v>17.899999999999999</v>
       </c>
       <c r="D5">
-        <v>19.8</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -926,13 +1035,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>17.3</v>
       </c>
       <c r="C6">
         <v>14.2</v>
       </c>
       <c r="D6">
-        <v>17.3</v>
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -940,13 +1049,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.2</v>
+        <v>49.9</v>
       </c>
       <c r="C7">
         <v>23.4</v>
       </c>
       <c r="D7">
-        <v>49.9</v>
+        <v>18.100000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -954,13 +1063,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="C8">
         <v>40.700000000000003</v>
       </c>
       <c r="D8">
-        <v>50</v>
+        <v>36.700000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -968,13 +1077,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.6999999999999993</v>
+        <v>43.9</v>
       </c>
       <c r="C9">
         <v>31.8</v>
       </c>
       <c r="D9">
-        <v>43.9</v>
+        <v>22.1</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -982,13 +1091,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.5</v>
+        <v>42.8</v>
       </c>
       <c r="C10">
         <v>24.3</v>
       </c>
       <c r="D10">
-        <v>42.8</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -996,27 +1105,192 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.4</v>
+        <v>52.1</v>
       </c>
       <c r="C11">
         <v>29.7</v>
       </c>
       <c r="D11">
-        <v>52.1</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>7.1</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="C12">
         <v>22.5</v>
       </c>
       <c r="D12">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>29.3</v>
+      </c>
+      <c r="C16">
+        <v>18.8</v>
+      </c>
+      <c r="D16">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>19.8</v>
+      </c>
+      <c r="C17">
+        <v>11.8</v>
+      </c>
+      <c r="D17">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>14.8</v>
+      </c>
+      <c r="C18">
+        <v>14</v>
+      </c>
+      <c r="D18">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>19.8</v>
+      </c>
+      <c r="C19">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="D19">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>17.3</v>
+      </c>
+      <c r="C20">
+        <v>14.2</v>
+      </c>
+      <c r="D20">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>49.9</v>
+      </c>
+      <c r="C21">
+        <v>23.4</v>
+      </c>
+      <c r="D21">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>50</v>
+      </c>
+      <c r="C22">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="D22">
+        <v>36.700000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23">
+        <v>43.9</v>
+      </c>
+      <c r="C23">
+        <v>31.8</v>
+      </c>
+      <c r="D23">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24">
+        <v>42.8</v>
+      </c>
+      <c r="C24">
+        <v>24.3</v>
+      </c>
+      <c r="D24">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25">
+        <v>52.1</v>
+      </c>
+      <c r="C25">
+        <v>29.7</v>
+      </c>
+      <c r="D25">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26">
         <v>33.700000000000003</v>
+      </c>
+      <c r="C26">
+        <v>22.5</v>
+      </c>
+      <c r="D26">
+        <v>15.5</v>
       </c>
     </row>
   </sheetData>

--- a/pub/chart.xlsx
+++ b/pub/chart.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
   <si>
     <t>C</t>
   </si>
@@ -59,6 +59,24 @@
   </si>
   <si>
     <t>Wrong output</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuzzes </t>
+  </si>
+  <si>
+    <t>Successful fuzzes</t>
+  </si>
+  <si>
+    <t>Successful compiles</t>
+  </si>
+  <si>
+    <t>Successful runs</t>
+  </si>
+  <si>
+    <t>Correct results</t>
+  </si>
+  <si>
+    <t>Incorrect results</t>
   </si>
 </sst>
 </file>
@@ -510,11 +528,11 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="121601024"/>
-        <c:axId val="121606912"/>
+        <c:axId val="122051584"/>
+        <c:axId val="123994880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="121601024"/>
+        <c:axId val="122051584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -531,14 +549,14 @@
             <a:endParaRPr lang="el-GR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="121606912"/>
+        <c:crossAx val="123994880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121606912"/>
+        <c:axId val="123994880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60"/>
@@ -576,7 +594,7 @@
             <a:endParaRPr lang="el-GR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="121601024"/>
+        <c:crossAx val="122051584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -593,10 +611,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.7505665839496577"/>
+          <c:x val="0.75056658394965747"/>
           <c:y val="0.58850868005913326"/>
-          <c:w val="0.21183702771295415"/>
-          <c:h val="0.26911209937835667"/>
+          <c:w val="0.21183702771295418"/>
+          <c:h val="0.26911209937835673"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -950,10 +968,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D12"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -961,6 +979,7 @@
     <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1153,7 +1172,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -1167,7 +1186,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -1181,7 +1200,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -1194,8 +1213,14 @@
       <c r="D19">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="H19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1208,8 +1233,18 @@
       <c r="D20">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="H20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20">
+        <v>32602</v>
+      </c>
+      <c r="J20">
+        <f>I20-I$23</f>
+        <v>30301</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1222,8 +1257,18 @@
       <c r="D21">
         <v>18.100000000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="H21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21">
+        <v>10999</v>
+      </c>
+      <c r="J21">
+        <f>I21-I$23</f>
+        <v>8698</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -1236,8 +1281,18 @@
       <c r="D22">
         <v>36.700000000000003</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="H22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22">
+        <v>7348</v>
+      </c>
+      <c r="J22">
+        <f>I22-I$23</f>
+        <v>5047</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1250,8 +1305,18 @@
       <c r="D23">
         <v>22.1</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="H23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23">
+        <v>2301</v>
+      </c>
+      <c r="J23">
+        <f>I23-I$23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1264,8 +1329,14 @@
       <c r="D24">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="H24" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24">
+        <v>5045</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -1279,7 +1350,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>10</v>
       </c>

--- a/pub/chart.xlsx
+++ b/pub/chart.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="16140" windowHeight="9345"/>
+    <workbookView xWindow="3160" yWindow="-60" windowWidth="23280" windowHeight="14800"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="4" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="first-version" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="20">
   <si>
     <t>C</t>
   </si>
@@ -83,13 +88,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Verdana"/>
     </font>
   </fonts>
   <fills count="2">
@@ -119,13 +128,14 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="el-GR"/>
+  <c:lang val="en-US"/>
+  <c:style val="2"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -228,37 +238,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>9.1999999999999993</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.3000000000000007</c:v>
+                  <c:v>8.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.1999999999999993</c:v>
+                  <c:v>9.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>14.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.1999999999999993</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.100000000000001</c:v>
+                  <c:v>18.1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>36.700000000000003</c:v>
+                  <c:v>36.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>22.1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14.8</c:v>
+                  <c:v>15.1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14.3</c:v>
+                  <c:v>16.3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.5</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -359,37 +369,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>18.8</c:v>
+                  <c:v>19.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.8</c:v>
+                  <c:v>11.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14</c:v>
+                  <c:v>16.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.899999999999999</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.2</c:v>
+                  <c:v>14.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.4</c:v>
+                  <c:v>22.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40.700000000000003</c:v>
+                  <c:v>40.3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31.8</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24.3</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29.7</c:v>
+                  <c:v>31.2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22.5</c:v>
+                  <c:v>23.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -493,10 +503,10 @@
                   <c:v>29.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.8</c:v>
+                  <c:v>20.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.8</c:v>
+                  <c:v>19.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>19.8</c:v>
@@ -505,22 +515,22 @@
                   <c:v>17.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>49.9</c:v>
+                  <c:v>49.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50</c:v>
+                  <c:v>48.9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43.9</c:v>
+                  <c:v>45.1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42.8</c:v>
+                  <c:v>43.3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>52.1</c:v>
+                  <c:v>53.1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>33.700000000000003</c:v>
+                  <c:v>34.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -528,11 +538,11 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="122051584"/>
-        <c:axId val="123994880"/>
+        <c:axId val="314596392"/>
+        <c:axId val="314593192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="122051584"/>
+        <c:axId val="314596392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -544,22 +554,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" baseline="0"/>
+              <a:defRPr lang="el-GR" sz="1600" baseline="0"/>
             </a:pPr>
-            <a:endParaRPr lang="el-GR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="123994880"/>
+        <c:crossAx val="314593192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="123994880"/>
+        <c:axId val="314593192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="60"/>
+          <c:max val="60.0"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorGridlines/>
@@ -570,7 +580,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1600" baseline="0"/>
+                  <a:defRPr lang="el-GR" sz="1600" baseline="0"/>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1600" baseline="0"/>
@@ -589,12 +599,12 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" baseline="0"/>
+              <a:defRPr lang="el-GR" sz="1600" baseline="0"/>
             </a:pPr>
-            <a:endParaRPr lang="el-GR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="122051584"/>
+        <c:crossAx val="314596392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -611,10 +621,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.75056658394965747"/>
-          <c:y val="0.58850868005913326"/>
-          <c:w val="0.21183702771295418"/>
-          <c:h val="0.26911209937835673"/>
+          <c:x val="0.750566583949657"/>
+          <c:y val="0.588508680059133"/>
+          <c:w val="0.211837027712954"/>
+          <c:h val="0.269112099378357"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -628,9 +638,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" baseline="0"/>
+            <a:defRPr lang="el-GR" sz="1600" baseline="0"/>
           </a:pPr>
-          <a:endParaRPr lang="el-GR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -651,8 +661,8 @@
     <sheetView tabSelected="1" zoomScale="82" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </chartsheet>
 </file>
 
@@ -660,7 +670,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="10280030" cy="7155366"/>
+    <xdr:ext cx="9819268" cy="7000488"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -967,19 +977,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1001,10 +1011,10 @@
         <v>29.3</v>
       </c>
       <c r="C2">
-        <v>18.8</v>
+        <v>19.3</v>
       </c>
       <c r="D2">
-        <v>9.1999999999999993</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1012,13 +1022,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.8</v>
+        <v>20.2</v>
       </c>
       <c r="C3">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D3">
-        <v>8.3000000000000007</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1026,13 +1036,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.8</v>
+        <v>19.5</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>16.8</v>
       </c>
       <c r="D4">
-        <v>8.1999999999999993</v>
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1043,7 +1053,7 @@
         <v>19.8</v>
       </c>
       <c r="C5">
-        <v>17.899999999999999</v>
+        <v>18</v>
       </c>
       <c r="D5">
         <v>14.8</v>
@@ -1057,10 +1067,10 @@
         <v>17.3</v>
       </c>
       <c r="C6">
-        <v>14.2</v>
+        <v>14.8</v>
       </c>
       <c r="D6">
-        <v>9.1999999999999993</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1068,10 +1078,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>49.9</v>
+        <v>49.6</v>
       </c>
       <c r="C7">
-        <v>23.4</v>
+        <v>22.7</v>
       </c>
       <c r="D7">
         <v>18.100000000000001</v>
@@ -1082,13 +1092,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>50</v>
+        <v>48.9</v>
       </c>
       <c r="C8">
-        <v>40.700000000000003</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="D8">
-        <v>36.700000000000003</v>
+        <v>36.200000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1096,10 +1106,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>43.9</v>
+        <v>45.1</v>
       </c>
       <c r="C9">
-        <v>31.8</v>
+        <v>32</v>
       </c>
       <c r="D9">
         <v>22.1</v>
@@ -1110,13 +1120,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>42.8</v>
+        <v>43.3</v>
       </c>
       <c r="C10">
-        <v>24.3</v>
+        <v>24</v>
       </c>
       <c r="D10">
-        <v>14.8</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1124,13 +1134,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>52.1</v>
+        <v>53.1</v>
       </c>
       <c r="C11">
-        <v>29.7</v>
+        <v>31.2</v>
       </c>
       <c r="D11">
-        <v>14.3</v>
+        <v>16.3</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1138,13 +1148,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.700000000000003</v>
+        <v>34.5</v>
       </c>
       <c r="C12">
-        <v>22.5</v>
+        <v>23</v>
       </c>
       <c r="D12">
-        <v>15.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1166,10 +1176,10 @@
         <v>29.3</v>
       </c>
       <c r="C16">
-        <v>18.8</v>
+        <v>19.3</v>
       </c>
       <c r="D16">
-        <v>9.1999999999999993</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1177,13 +1187,13 @@
         <v>1</v>
       </c>
       <c r="B17">
-        <v>19.8</v>
+        <v>20.2</v>
       </c>
       <c r="C17">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D17">
-        <v>8.3000000000000007</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1191,13 +1201,13 @@
         <v>2</v>
       </c>
       <c r="B18">
-        <v>14.8</v>
+        <v>19.5</v>
       </c>
       <c r="C18">
-        <v>14</v>
+        <v>16.8</v>
       </c>
       <c r="D18">
-        <v>8.1999999999999993</v>
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1208,7 +1218,7 @@
         <v>19.8</v>
       </c>
       <c r="C19">
-        <v>17.899999999999999</v>
+        <v>18</v>
       </c>
       <c r="D19">
         <v>14.8</v>
@@ -1228,10 +1238,10 @@
         <v>17.3</v>
       </c>
       <c r="C20">
-        <v>14.2</v>
+        <v>14.8</v>
       </c>
       <c r="D20">
-        <v>9.1999999999999993</v>
+        <v>10</v>
       </c>
       <c r="H20" t="s">
         <v>15</v>
@@ -1249,10 +1259,10 @@
         <v>5</v>
       </c>
       <c r="B21">
-        <v>49.9</v>
+        <v>49.6</v>
       </c>
       <c r="C21">
-        <v>23.4</v>
+        <v>22.7</v>
       </c>
       <c r="D21">
         <v>18.100000000000001</v>
@@ -1273,13 +1283,13 @@
         <v>6</v>
       </c>
       <c r="B22">
-        <v>50</v>
+        <v>48.9</v>
       </c>
       <c r="C22">
-        <v>40.700000000000003</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="D22">
-        <v>36.700000000000003</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="H22" t="s">
         <v>17</v>
@@ -1297,10 +1307,10 @@
         <v>7</v>
       </c>
       <c r="B23">
-        <v>43.9</v>
+        <v>45.1</v>
       </c>
       <c r="C23">
-        <v>31.8</v>
+        <v>32</v>
       </c>
       <c r="D23">
         <v>22.1</v>
@@ -1321,13 +1331,13 @@
         <v>8</v>
       </c>
       <c r="B24">
-        <v>42.8</v>
+        <v>43.3</v>
       </c>
       <c r="C24">
-        <v>24.3</v>
+        <v>24</v>
       </c>
       <c r="D24">
-        <v>14.8</v>
+        <v>15.1</v>
       </c>
       <c r="H24" t="s">
         <v>19</v>
@@ -1341,13 +1351,13 @@
         <v>9</v>
       </c>
       <c r="B25">
-        <v>52.1</v>
+        <v>53.1</v>
       </c>
       <c r="C25">
-        <v>29.7</v>
+        <v>31.2</v>
       </c>
       <c r="D25">
-        <v>14.3</v>
+        <v>16.3</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1355,40 +1365,277 @@
         <v>10</v>
       </c>
       <c r="B26">
-        <v>33.700000000000003</v>
+        <v>34.5</v>
       </c>
       <c r="C26">
-        <v>22.5</v>
+        <v>23</v>
       </c>
       <c r="D26">
-        <v>15.5</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>29.3</v>
+      </c>
+      <c r="C2">
+        <v>18.8</v>
+      </c>
+      <c r="D2">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>19.8</v>
+      </c>
+      <c r="C3">
+        <v>11.8</v>
+      </c>
+      <c r="D3">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>14.8</v>
+      </c>
+      <c r="C4">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>19.8</v>
+      </c>
+      <c r="C5">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="D5">
+        <v>14.8</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>17.3</v>
+      </c>
+      <c r="C6">
+        <v>14.2</v>
+      </c>
+      <c r="D6">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6">
+        <v>32602</v>
+      </c>
+      <c r="J6">
+        <f>I6-I$23</f>
+        <v>32602</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>49.9</v>
+      </c>
+      <c r="C7">
+        <v>23.4</v>
+      </c>
+      <c r="D7">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7">
+        <v>10999</v>
+      </c>
+      <c r="J7">
+        <f>I7-I$23</f>
+        <v>10999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>50</v>
+      </c>
+      <c r="C8">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="D8">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8">
+        <v>7348</v>
+      </c>
+      <c r="J8">
+        <f>I8-I$23</f>
+        <v>7348</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>43.9</v>
+      </c>
+      <c r="C9">
+        <v>31.8</v>
+      </c>
+      <c r="D9">
+        <v>22.1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9">
+        <v>2301</v>
+      </c>
+      <c r="J9">
+        <f>I9-I$23</f>
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>42.8</v>
+      </c>
+      <c r="C10">
+        <v>24.3</v>
+      </c>
+      <c r="D10">
+        <v>14.8</v>
+      </c>
+      <c r="H10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10">
+        <v>5045</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>52.1</v>
+      </c>
+      <c r="C11">
+        <v>29.7</v>
+      </c>
+      <c r="D11">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="C12">
+        <v>22.5</v>
+      </c>
+      <c r="D12">
+        <v>15.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/pub/chart.xlsx
+++ b/pub/chart.xlsx
@@ -1,28 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr checkCompatibility="1" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr checkCompatibility="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3160" yWindow="-60" windowWidth="23280" windowHeight="14800"/>
+    <workbookView xWindow="3165" yWindow="-60" windowWidth="23280" windowHeight="13620" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Chart1" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Language chart" sheetId="4" r:id="rId1"/>
+    <sheet name="Language data" sheetId="1" r:id="rId2"/>
     <sheet name="first-version" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Chart2" sheetId="6" r:id="rId4"/>
+    <sheet name="Overall chart" sheetId="5" r:id="rId5"/>
+    <sheet name="Overall" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="25">
   <si>
     <t>C</t>
   </si>
@@ -82,6 +79,21 @@
   </si>
   <si>
     <t>Incorrect results</t>
+  </si>
+  <si>
+    <t>Compile OK</t>
+  </si>
+  <si>
+    <t>Run OK</t>
+  </si>
+  <si>
+    <t>Output OK</t>
+  </si>
+  <si>
+    <t>Fuzz OK</t>
+  </si>
+  <si>
+    <t>Runs</t>
   </si>
 </sst>
 </file>
@@ -121,21 +133,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:style val="2"/>
+  <c:lang val="el-GR"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -148,7 +160,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>'Language data'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -159,7 +171,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$26</c:f>
+              <c:f>'Language data'!$A$2:$A$26</c:f>
               <c:strCache>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
@@ -233,30 +245,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$12</c:f>
+              <c:f>'Language data'!$D$2:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>8.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.8</c:v>
+                  <c:v>9.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>14.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.1</c:v>
+                  <c:v>18.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>36.2</c:v>
+                  <c:v>36.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>22.1</c:v>
@@ -268,7 +280,7 @@
                   <c:v>16.3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -279,7 +291,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>'Language data'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -290,7 +302,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$26</c:f>
+              <c:f>'Language data'!$A$2:$A$26</c:f>
               <c:strCache>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
@@ -364,7 +376,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$12</c:f>
+              <c:f>'Language data'!$C$2:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -378,7 +390,7 @@
                   <c:v>16.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>14.8</c:v>
@@ -387,19 +399,19 @@
                   <c:v>22.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40.3</c:v>
+                  <c:v>40.299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>31.2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -410,7 +422,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>'Language data'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -421,7 +433,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$26</c:f>
+              <c:f>'Language data'!$A$2:$A$26</c:f>
               <c:strCache>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
@@ -495,7 +507,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$12</c:f>
+              <c:f>'Language data'!$B$2:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -538,11 +550,11 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="40"/>
-        <c:axId val="314596392"/>
-        <c:axId val="314593192"/>
+        <c:axId val="64770816"/>
+        <c:axId val="64772352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="314596392"/>
+        <c:axId val="64770816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -556,20 +568,20 @@
             <a:pPr>
               <a:defRPr lang="el-GR" sz="1600" baseline="0"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="el-GR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="314593192"/>
+        <c:crossAx val="64772352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="314593192"/>
+        <c:axId val="64772352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="60.0"/>
+          <c:max val="60"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorGridlines/>
@@ -601,10 +613,10 @@
             <a:pPr>
               <a:defRPr lang="el-GR" sz="1600" baseline="0"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="el-GR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="314596392"/>
+        <c:crossAx val="64770816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -621,10 +633,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.750566583949657"/>
-          <c:y val="0.588508680059133"/>
-          <c:w val="0.211837027712954"/>
-          <c:h val="0.269112099378357"/>
+          <c:x val="0.75056658394965681"/>
+          <c:y val="0.58850868005913293"/>
+          <c:w val="0.21183702771295401"/>
+          <c:h val="0.26911209937835706"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -640,7 +652,7 @@
           <a:pPr>
             <a:defRPr lang="el-GR" sz="1600" baseline="0"/>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="el-GR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -654,14 +666,284 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="el-GR"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Overall!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Runs</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fuzz OK</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Compile OK</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Run OK</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Output OK</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Overall!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>280000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>261667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90166</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60126</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="78330880"/>
+        <c:axId val="80665216"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="78330880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="80665216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="80665216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="78330880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="el-GR"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Overall!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Runs</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fuzz OK</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Compile OK</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Run OK</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Output OK</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Overall!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>280000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>261667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90166</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60126</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="94201728"/>
+        <c:axId val="94203264"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="94201728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" baseline="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="el-GR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="94203264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="94203264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" baseline="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000" baseline="0"/>
+                  <a:t># of Operations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" baseline="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="el-GR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="94201728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="thousands"/>
+          <c:dispUnitsLbl>
+            <c:layout/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" baseline="0"/>
+                </a:pPr>
+                <a:endParaRPr lang="el-GR"/>
+              </a:p>
+            </c:txPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="89" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </chartsheet>
 </file>
@@ -671,6 +953,60 @@
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
     <xdr:ext cx="9819268" cy="7000488"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9297051" cy="6048782"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9312306" cy="6057160"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -977,17 +1313,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="39" customWidth="1"/>
   </cols>
@@ -1386,14 +1722,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="B1" t="s">
@@ -1624,18 +1960,56 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1">
+        <v>280000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1">
+        <v>261667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1">
+        <v>90166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1">
+        <v>60126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1">
+        <v>18256</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>